--- a/biology/Zoologie/Gigantisme_abyssal/Gigantisme_abyssal.xlsx
+++ b/biology/Zoologie/Gigantisme_abyssal/Gigantisme_abyssal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En zoologie, le gigantisme abyssal, aussi appelé gigantisme des profondeurs, est un phénomène biologique mal compris concernant les espèces de crustacés, d'invertébrés et autres animaux vivant dans les abysses qui affichent une plus grande taille que leurs homologues de surface[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En zoologie, le gigantisme abyssal, aussi appelé gigantisme des profondeurs, est un phénomène biologique mal compris concernant les espèces de crustacés, d'invertébrés et autres animaux vivant dans les abysses qui affichent une plus grande taille que leurs homologues de surface.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi les invertébrés on compte les isopodes géants, les amphipodes géants, le crabe araignée géant du Japon, la pieuvre à sept bras, et un certain nombre d'espèces de calmar : le calmar colossal (jusqu'à 14 m de longueur), les différents calmars géants (jusqu'à 13 m), le calmar robuste (2 m), Taningia danae (2,3 m), le calmar cacatoès (4 m), Kondakovia longimana (2,3 m), Asperoteuthis acanthoderma (5,5 m) et les calmars à longs bras (jusqu'à 8 m). Parmi les vertébrés, on compte le régalec (allant jusqu'à 11 m) et la raie géante Plesiobatis daviesi (jusqu'à 2,7 m).
 D'autres poissons des abysses, comme le requin du Groenland (jusqu'à 7 m) et le requin dormeur du Pacifique (jusqu'à 7,3 m), affichent des tailles records, mais ne sont pas vraiment considérés comme des exemples puisqu'ils remontent parfois à la surface.
@@ -543,7 +557,9 @@
           <t>Hypothèses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Si on ne connaît pas exactement les raisons de ce phénomène, plusieurs hypothèses sont avancées :
 l'adaptation à la rareté des ressources alimentaires retardant la maturité sexuelle et entraînant une plus grande taille ;
